--- a/CashFlow/SNPS_cashflow.xlsx
+++ b/CashFlow/SNPS_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>564206000.0</v>
+        <v>97308000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>327904000.0</v>
+        <v>283072000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>157939000.0</v>
+        <v>343091000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>8866000.0</v>
+        <v>346962000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-6871000.0</v>
+        <v>146431000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-17396000.0</v>
@@ -920,19 +920,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>144000000.0</v>
+        <v>75450000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>146000000.0</v>
+        <v>113773000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>141920000.0</v>
+        <v>69762000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>220212000.0</v>
+        <v>62223000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>226819000.0</v>
+        <v>67005000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-19280000.0</v>
